--- a/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.005273541345957</v>
+        <v>2.766975564199811</v>
       </c>
       <c r="C2">
-        <v>0.5654444245399759</v>
+        <v>0.3453892141734656</v>
       </c>
       <c r="D2">
-        <v>0.02575626309308898</v>
+        <v>0.03534611367906138</v>
       </c>
       <c r="E2">
-        <v>0.02641426889047604</v>
+        <v>0.04386317380208027</v>
       </c>
       <c r="F2">
-        <v>1.674713326738527</v>
+        <v>0.652823318516198</v>
       </c>
       <c r="G2">
-        <v>0.0007905030317760074</v>
+        <v>0.0007880859100512336</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3433165999640693</v>
+        <v>0.3074451551146069</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7717493524518808</v>
+        <v>0.6822490555354506</v>
       </c>
       <c r="O2">
-        <v>1.315148947001916</v>
+        <v>1.923888055902836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.473846593802477</v>
+        <v>2.404292825747746</v>
       </c>
       <c r="C3">
-        <v>0.4924811786796965</v>
+        <v>0.3153830997787566</v>
       </c>
       <c r="D3">
-        <v>0.02774793191097213</v>
+        <v>0.03246700755545717</v>
       </c>
       <c r="E3">
-        <v>0.02627949874690572</v>
+        <v>0.04304262831869821</v>
       </c>
       <c r="F3">
-        <v>1.513287418512945</v>
+        <v>0.598119202919186</v>
       </c>
       <c r="G3">
-        <v>0.0007984942216398755</v>
+        <v>0.0007925832013865441</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3008523566825403</v>
+        <v>0.2698476761241011</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8251680747587216</v>
+        <v>0.7082407066178504</v>
       </c>
       <c r="O3">
-        <v>1.197304258359679</v>
+        <v>1.791433566533357</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.152325910291665</v>
+        <v>2.182427497544609</v>
       </c>
       <c r="C4">
-        <v>0.4480701026631948</v>
+        <v>0.2969224415243588</v>
       </c>
       <c r="D4">
-        <v>0.02903083002802287</v>
+        <v>0.03069363356976851</v>
       </c>
       <c r="E4">
-        <v>0.02623671720132137</v>
+        <v>0.04262915000841261</v>
       </c>
       <c r="F4">
-        <v>1.418085761680985</v>
+        <v>0.5658573113478127</v>
       </c>
       <c r="G4">
-        <v>0.00080353492419256</v>
+        <v>0.000795436600469735</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2752974893905105</v>
+        <v>0.2470319546991959</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8595754057060248</v>
+        <v>0.725271564211539</v>
       </c>
       <c r="O4">
-        <v>1.128155793964567</v>
+        <v>1.71448361879888</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.022344960918076</v>
+        <v>2.092183415408954</v>
       </c>
       <c r="C5">
-        <v>0.4300497353836192</v>
+        <v>0.2893886784288782</v>
       </c>
       <c r="D5">
-        <v>0.02956789191902587</v>
+        <v>0.02996946118566157</v>
       </c>
       <c r="E5">
-        <v>0.02622887579523692</v>
+        <v>0.04248237801162702</v>
       </c>
       <c r="F5">
-        <v>1.380180379230879</v>
+        <v>0.5530210580495023</v>
       </c>
       <c r="G5">
-        <v>0.000805624226648431</v>
+        <v>0.0007966229817147953</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2649990380410259</v>
+        <v>0.2377952767846381</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8739831653268517</v>
+        <v>0.7324728737144071</v>
       </c>
       <c r="O5">
-        <v>1.100708725319762</v>
+        <v>1.684155475117819</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.000820184209374</v>
+        <v>2.077207490871047</v>
       </c>
       <c r="C6">
-        <v>0.4270615893551621</v>
+        <v>0.2881369991227984</v>
       </c>
       <c r="D6">
-        <v>0.02965791020272945</v>
+        <v>0.02984911902153797</v>
       </c>
       <c r="E6">
-        <v>0.02622814035234455</v>
+        <v>0.04245929057941566</v>
       </c>
       <c r="F6">
-        <v>1.373937363395811</v>
+        <v>0.5509077294065108</v>
       </c>
       <c r="G6">
-        <v>0.0008059733188699738</v>
+        <v>0.0007968214175310129</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2632955404296382</v>
+        <v>0.2362650208599604</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8763984117818957</v>
+        <v>0.7336841774486089</v>
       </c>
       <c r="O6">
-        <v>1.096193252263546</v>
+        <v>1.679179683924957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.150568927513746</v>
+        <v>2.181209804804098</v>
       </c>
       <c r="C7">
-        <v>0.4478267853594673</v>
+        <v>0.2968208847573379</v>
       </c>
       <c r="D7">
-        <v>0.02903801627183267</v>
+        <v>0.03068387336220368</v>
       </c>
       <c r="E7">
-        <v>0.02623657319016015</v>
+        <v>0.0426270839080285</v>
       </c>
       <c r="F7">
-        <v>1.417571071711279</v>
+        <v>0.5656829683645697</v>
       </c>
       <c r="G7">
-        <v>0.0008035629569428154</v>
+        <v>0.0007954525042450089</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2751581526979265</v>
+        <v>0.2469071477066507</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8597681714153786</v>
+        <v>0.7253676372225328</v>
       </c>
       <c r="O7">
-        <v>1.127782766599097</v>
+        <v>1.714070525456663</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.820945301719519</v>
+        <v>2.641727234141626</v>
       </c>
       <c r="C8">
-        <v>0.5401932918508408</v>
+        <v>0.3350497009940483</v>
       </c>
       <c r="D8">
-        <v>0.02643001683544544</v>
+        <v>0.03435449313644767</v>
       </c>
       <c r="E8">
-        <v>0.02635921820218456</v>
+        <v>0.04356088650074064</v>
       </c>
       <c r="F8">
-        <v>1.618182007750562</v>
+        <v>0.6336718334571856</v>
       </c>
       <c r="G8">
-        <v>0.0007932314803906356</v>
+        <v>0.0007896177519888398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3285579342307727</v>
+        <v>0.2944214334232669</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7898231722906246</v>
+        <v>0.6909832898629062</v>
       </c>
       <c r="O8">
-        <v>1.273802806202184</v>
+        <v>1.87726507963967</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.181474033934762</v>
+        <v>3.55326670018809</v>
       </c>
       <c r="C9">
-        <v>0.7254251728561769</v>
+        <v>0.4098089472029187</v>
       </c>
       <c r="D9">
-        <v>0.02183358127279433</v>
+        <v>0.04151364011161718</v>
       </c>
       <c r="E9">
-        <v>0.02693947375141192</v>
+        <v>0.04615629451267544</v>
       </c>
       <c r="F9">
-        <v>2.047339304647309</v>
+        <v>0.7786245228148658</v>
       </c>
       <c r="G9">
-        <v>0.0007739629312399789</v>
+        <v>0.0007788844310358676</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4381357931813028</v>
+        <v>0.390063983813576</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6663051369218245</v>
+        <v>0.6324630433613905</v>
       </c>
       <c r="O9">
-        <v>1.589364902966608</v>
+        <v>2.235448146610253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.221580574578468</v>
+        <v>4.231082053402929</v>
       </c>
       <c r="C10">
-        <v>0.8656155181093084</v>
+        <v>0.4647416079550055</v>
       </c>
       <c r="D10">
-        <v>0.01883917936082646</v>
+        <v>0.046758557053451</v>
       </c>
       <c r="E10">
-        <v>0.02760779471688046</v>
+        <v>0.04859913449120512</v>
       </c>
       <c r="F10">
-        <v>2.391765071550438</v>
+        <v>0.8938489681712696</v>
       </c>
       <c r="G10">
-        <v>0.0007602985524833241</v>
+        <v>0.0007713984152662</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5227727838854719</v>
+        <v>0.4623337740458737</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5852474300747232</v>
+        <v>0.5954927165073585</v>
       </c>
       <c r="O10">
-        <v>1.844879029286759</v>
+        <v>2.526970133674553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.706770157935864</v>
+        <v>4.541913229219233</v>
       </c>
       <c r="C11">
-        <v>0.9306962322973504</v>
+        <v>0.4897665705478289</v>
       </c>
       <c r="D11">
-        <v>0.01757803775551814</v>
+        <v>0.04914358125306961</v>
       </c>
       <c r="E11">
-        <v>0.02797322976044292</v>
+        <v>0.04984354229554455</v>
       </c>
       <c r="F11">
-        <v>2.556658673847721</v>
+        <v>0.9485566962753751</v>
       </c>
       <c r="G11">
-        <v>0.0007541606239439376</v>
+        <v>0.0007680719858744744</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5624721536153316</v>
+        <v>0.4957655613682448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5508311107291206</v>
+        <v>0.5801246867008061</v>
       </c>
       <c r="O11">
-        <v>1.967765741437574</v>
+        <v>2.666977640417002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.892537936813824</v>
+        <v>4.660038532056319</v>
       </c>
       <c r="C12">
-        <v>0.9555684736560579</v>
+        <v>0.4992509632525639</v>
       </c>
       <c r="D12">
-        <v>0.01711681686999356</v>
+        <v>0.05004678943022611</v>
       </c>
       <c r="E12">
-        <v>0.02812128349484588</v>
+        <v>0.05033541370005779</v>
       </c>
       <c r="F12">
-        <v>2.620461278756778</v>
+        <v>0.9696381085773993</v>
       </c>
       <c r="G12">
-        <v>0.0007518448669477397</v>
+        <v>0.0007668230379803687</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5777060530674305</v>
+        <v>0.5085159688418202</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5381864476378482</v>
+        <v>0.5745267012333741</v>
       </c>
       <c r="O12">
-        <v>2.015401241263248</v>
+        <v>2.721168776356734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.852433627258108</v>
+        <v>4.634578394672758</v>
       </c>
       <c r="C13">
-        <v>0.9502009809800143</v>
+        <v>0.4972079265027958</v>
       </c>
       <c r="D13">
-        <v>0.01721538992454619</v>
+        <v>0.04985226199741533</v>
       </c>
       <c r="E13">
-        <v>0.02808895285789781</v>
+        <v>0.05022853739638755</v>
       </c>
       <c r="F13">
-        <v>2.606656595669193</v>
+        <v>0.9650810340974942</v>
       </c>
       <c r="G13">
-        <v>0.0007523432730154379</v>
+        <v>0.0007670915564343623</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.574415746402849</v>
+        <v>0.5057657372379083</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5408918411435906</v>
+        <v>0.5757222555702199</v>
       </c>
       <c r="O13">
-        <v>2.005090613385562</v>
+        <v>2.709443711073988</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.722010666616711</v>
+        <v>4.551622670546578</v>
       </c>
       <c r="C14">
-        <v>0.9327376793778512</v>
+        <v>0.4905466800569229</v>
       </c>
       <c r="D14">
-        <v>0.01753975377266137</v>
+        <v>0.04921788659246573</v>
       </c>
       <c r="E14">
-        <v>0.02798521122390163</v>
+        <v>0.04988358622052225</v>
       </c>
       <c r="F14">
-        <v>2.5618793611944</v>
+        <v>0.950283554068065</v>
       </c>
       <c r="G14">
-        <v>0.0007539699505956232</v>
+        <v>0.0007679690237702624</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5637212594295704</v>
+        <v>0.496812667393641</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.549782834335204</v>
+        <v>0.5796596185462519</v>
       </c>
       <c r="O14">
-        <v>1.971661782436726</v>
+        <v>2.67141179947194</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.642397867619536</v>
+        <v>4.500866564623379</v>
       </c>
       <c r="C15">
-        <v>0.9220718079546941</v>
+        <v>0.4864676025684105</v>
       </c>
       <c r="D15">
-        <v>0.01774062368695795</v>
+        <v>0.04882932575975474</v>
       </c>
       <c r="E15">
-        <v>0.0279229526520961</v>
+        <v>0.04967502797837753</v>
       </c>
       <c r="F15">
-        <v>2.53463499509752</v>
+        <v>0.9412682696394938</v>
       </c>
       <c r="G15">
-        <v>0.0007549673648427854</v>
+        <v>0.0007685078706330242</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5571976077684155</v>
+        <v>0.4913407697097085</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5552804683146988</v>
+        <v>0.5821006239643296</v>
       </c>
       <c r="O15">
-        <v>1.951333646523196</v>
+        <v>2.648272380357241</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.190139814833856</v>
+        <v>4.210823809214617</v>
       </c>
       <c r="C16">
-        <v>0.8613919131363161</v>
+        <v>0.4631071244434963</v>
       </c>
       <c r="D16">
-        <v>0.01892377983181959</v>
+        <v>0.04660268691549163</v>
       </c>
       <c r="E16">
-        <v>0.02758521803456127</v>
+        <v>0.04852061410803898</v>
       </c>
       <c r="F16">
-        <v>2.381169010944404</v>
+        <v>0.8903227532883591</v>
       </c>
       <c r="G16">
-        <v>0.0007607010294868892</v>
+        <v>0.0007716173394350415</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.520204781572815</v>
+        <v>0.4601609994365958</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5875489276576644</v>
+        <v>0.5965273239940885</v>
       </c>
       <c r="O16">
-        <v>1.836993872996075</v>
+        <v>2.517978303242046</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.915983332594351</v>
+        <v>4.033572329786239</v>
       </c>
       <c r="C17">
-        <v>0.8245281644066722</v>
+        <v>0.4487873319365292</v>
       </c>
       <c r="D17">
-        <v>0.01967668933999001</v>
+        <v>0.04523660615678438</v>
       </c>
       <c r="E17">
-        <v>0.02739432521856777</v>
+        <v>0.04784755083214165</v>
       </c>
       <c r="F17">
-        <v>2.289247021910043</v>
+        <v>0.8596804863002916</v>
       </c>
       <c r="G17">
-        <v>0.0007642366354353104</v>
+        <v>0.0007735446751977959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4978367124133172</v>
+        <v>0.4411828651283116</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6079972417019945</v>
+        <v>0.6057579913870512</v>
       </c>
       <c r="O17">
-        <v>1.76865089383611</v>
+        <v>2.440016317830327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.759408573014525</v>
+        <v>3.931852273187133</v>
       </c>
       <c r="C18">
-        <v>0.8034455122269151</v>
+        <v>0.440554152334812</v>
       </c>
       <c r="D18">
-        <v>0.02011912766421098</v>
+        <v>0.04445077451904922</v>
       </c>
       <c r="E18">
-        <v>0.02729025332503809</v>
+        <v>0.04747285946278268</v>
       </c>
       <c r="F18">
-        <v>2.237136885358311</v>
+        <v>0.8422692886910852</v>
       </c>
       <c r="G18">
-        <v>0.0007662777490631221</v>
+        <v>0.0007746607056671743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4850820144265384</v>
+        <v>0.4303187867383684</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6199875319108727</v>
+        <v>0.6112028669047262</v>
       </c>
       <c r="O18">
-        <v>1.729958271917624</v>
+        <v>2.395863384308115</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.706577484532374</v>
+        <v>3.897449350257148</v>
       </c>
       <c r="C19">
-        <v>0.7963268458115635</v>
+        <v>0.4377670045595323</v>
       </c>
       <c r="D19">
-        <v>0.02027049066338549</v>
+        <v>0.04418468330324288</v>
       </c>
       <c r="E19">
-        <v>0.02725597556615789</v>
+        <v>0.04734808763681642</v>
       </c>
       <c r="F19">
-        <v>2.21961886838406</v>
+        <v>0.8364097819237202</v>
       </c>
       <c r="G19">
-        <v>0.0007669702043031115</v>
+        <v>0.0007750398781260932</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4807817189583119</v>
+        <v>0.4266489572984256</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6240855772508489</v>
+        <v>0.6130693223860249</v>
       </c>
       <c r="O19">
-        <v>1.716959389017418</v>
+        <v>2.381029030996245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.945050497222894</v>
+        <v>4.052416781676698</v>
       </c>
       <c r="C20">
-        <v>0.8284396423404417</v>
+        <v>0.4503113488781025</v>
       </c>
       <c r="D20">
-        <v>0.01959555729103535</v>
+        <v>0.04538203667451768</v>
       </c>
       <c r="E20">
-        <v>0.02741404783823853</v>
+        <v>0.04791790191811707</v>
       </c>
       <c r="F20">
-        <v>2.298952287217659</v>
+        <v>0.8629200726523152</v>
       </c>
       <c r="G20">
-        <v>0.0007638595036060745</v>
+        <v>0.0007733387378061063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5002061673580442</v>
+        <v>0.443197701150666</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6057965501217595</v>
+        <v>0.6047612414115378</v>
       </c>
       <c r="O20">
-        <v>1.77586133313649</v>
+        <v>2.44824345120287</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.760261132709331</v>
+        <v>4.575976848957168</v>
       </c>
       <c r="C21">
-        <v>0.9378605553928878</v>
+        <v>0.4925030090237783</v>
       </c>
       <c r="D21">
-        <v>0.01744402066708339</v>
+        <v>0.04940421508518256</v>
       </c>
       <c r="E21">
-        <v>0.02801541297329457</v>
+        <v>0.04998433409102176</v>
       </c>
       <c r="F21">
-        <v>2.574993031736227</v>
+        <v>0.9546197376978114</v>
       </c>
       <c r="G21">
-        <v>0.0007534919472517971</v>
+        <v>0.0007677110055177482</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5668568004381314</v>
+        <v>0.4994398559600626</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5471605030059834</v>
+        <v>0.5784969978031071</v>
       </c>
       <c r="O21">
-        <v>1.98144951470212</v>
+        <v>2.68254992736891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.305093617248701</v>
+        <v>4.920636086255115</v>
       </c>
       <c r="C22">
-        <v>1.010722443249733</v>
+        <v>0.5201257438666289</v>
       </c>
       <c r="D22">
-        <v>0.01613421088266165</v>
+        <v>0.05203333856971426</v>
       </c>
       <c r="E22">
-        <v>0.02846527869329663</v>
+        <v>0.05145595367167388</v>
       </c>
       <c r="F22">
-        <v>2.763435754157626</v>
+        <v>1.016695418220692</v>
       </c>
       <c r="G22">
-        <v>0.0007467644445444021</v>
+        <v>0.0007640949747644843</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6116020858037814</v>
+        <v>0.5367304802933148</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5111198924997566</v>
+        <v>0.5626299575678928</v>
       </c>
       <c r="O22">
-        <v>2.122311943092583</v>
+        <v>2.842579490659347</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.013092362761995</v>
+        <v>4.736435856061405</v>
       </c>
       <c r="C23">
-        <v>0.9716967138517418</v>
+        <v>0.5053775651174135</v>
       </c>
       <c r="D23">
-        <v>0.01682378526912132</v>
+        <v>0.05063002418452101</v>
       </c>
       <c r="E23">
-        <v>0.02821967108249268</v>
+        <v>0.05065892026720853</v>
       </c>
       <c r="F23">
-        <v>2.662059358937938</v>
+        <v>0.9833558340456818</v>
       </c>
       <c r="G23">
-        <v>0.0007503515984040917</v>
+        <v>0.000766019474942694</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5876018645234922</v>
+        <v>0.5167752711438993</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5301339823404803</v>
+        <v>0.570975141788054</v>
       </c>
       <c r="O23">
-        <v>2.046483532315378</v>
+        <v>2.756498875946988</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.931906010784473</v>
+        <v>4.043896635942701</v>
       </c>
       <c r="C24">
-        <v>0.8266709209441103</v>
+        <v>0.4496223427119617</v>
       </c>
       <c r="D24">
-        <v>0.01963220738242022</v>
+        <v>0.04531628896409501</v>
       </c>
       <c r="E24">
-        <v>0.02740511362789988</v>
+        <v>0.04788605811149971</v>
       </c>
       <c r="F24">
-        <v>2.294562254361864</v>
+        <v>0.8614548183648623</v>
       </c>
       <c r="G24">
-        <v>0.000764029978317593</v>
+        <v>0.0007734318172165513</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4991346118154212</v>
+        <v>0.4422866491024848</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6067907556154033</v>
+        <v>0.6052114430813589</v>
       </c>
       <c r="O24">
-        <v>1.772599639484625</v>
+        <v>2.444521890363546</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.807288816424091</v>
+        <v>3.305473848216138</v>
       </c>
       <c r="C25">
-        <v>0.6747219176061776</v>
+        <v>0.3895937147379129</v>
       </c>
       <c r="D25">
-        <v>0.02301526942052057</v>
+        <v>0.03958020671279172</v>
       </c>
       <c r="E25">
-        <v>0.0267427429739211</v>
+        <v>0.04536539094768521</v>
       </c>
       <c r="F25">
-        <v>1.926705624888939</v>
+        <v>0.7380038877951733</v>
       </c>
       <c r="G25">
-        <v>0.0007790803206237678</v>
+        <v>0.0007817154260123027</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4078589321643022</v>
+        <v>0.3638768191725035</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.698127210387586</v>
+        <v>0.6472819228814828</v>
       </c>
       <c r="O25">
-        <v>1.500303813000102</v>
+        <v>2.133960011591455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.766975564199811</v>
+        <v>2.35224911534948</v>
       </c>
       <c r="C2">
-        <v>0.3453892141734656</v>
+        <v>0.3701260553039134</v>
       </c>
       <c r="D2">
-        <v>0.03534611367906138</v>
+        <v>0.05626022433299482</v>
       </c>
       <c r="E2">
-        <v>0.04386317380208027</v>
+        <v>0.0830235870111693</v>
       </c>
       <c r="F2">
-        <v>0.652823318516198</v>
+        <v>0.4188804216945456</v>
       </c>
       <c r="G2">
-        <v>0.0007880859100512336</v>
+        <v>0.311887849140021</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001858043912129181</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2476354158066414</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2242821943040418</v>
       </c>
       <c r="L2">
-        <v>0.3074451551146069</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6822490555354506</v>
+        <v>0.3525658103922638</v>
       </c>
       <c r="O2">
-        <v>1.923888055902836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7990803658450432</v>
+      </c>
+      <c r="Q2">
+        <v>1.129833018030865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.404292825747746</v>
+        <v>2.049385116848725</v>
       </c>
       <c r="C3">
-        <v>0.3153830997787566</v>
+        <v>0.3399362875897367</v>
       </c>
       <c r="D3">
-        <v>0.03246700755545717</v>
+        <v>0.04963977782091433</v>
       </c>
       <c r="E3">
-        <v>0.04304262831869821</v>
+        <v>0.07928611712554456</v>
       </c>
       <c r="F3">
-        <v>0.598119202919186</v>
+        <v>0.3852059087474302</v>
       </c>
       <c r="G3">
-        <v>0.0007925832013865441</v>
+        <v>0.2869553105926741</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0009251430005552397</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2402040480696996</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2234545097290059</v>
       </c>
       <c r="L3">
-        <v>0.2698476761241011</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7082407066178504</v>
+        <v>0.3128058484398366</v>
       </c>
       <c r="O3">
-        <v>1.791433566533357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7935914245146876</v>
+      </c>
+      <c r="Q3">
+        <v>1.061125258250314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.182427497544609</v>
+        <v>1.863139451367203</v>
       </c>
       <c r="C4">
-        <v>0.2969224415243588</v>
+        <v>0.3213019364588376</v>
       </c>
       <c r="D4">
-        <v>0.03069363356976851</v>
+        <v>0.04556243320940467</v>
       </c>
       <c r="E4">
-        <v>0.04262915000841261</v>
+        <v>0.07697845834021422</v>
       </c>
       <c r="F4">
-        <v>0.5658573113478127</v>
+        <v>0.3651161557053797</v>
       </c>
       <c r="G4">
-        <v>0.000795436600469735</v>
+        <v>0.2721494424591953</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0004992617152708156</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.235977515047523</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2233528150213537</v>
       </c>
       <c r="L4">
-        <v>0.2470319546991959</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.725271564211539</v>
+        <v>0.2883755886939952</v>
       </c>
       <c r="O4">
-        <v>1.71448361879888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.790836167783155</v>
+      </c>
+      <c r="Q4">
+        <v>1.020700235839627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.092183415408954</v>
+        <v>1.787162034385659</v>
       </c>
       <c r="C5">
-        <v>0.2893886784288782</v>
+        <v>0.3136830309214531</v>
       </c>
       <c r="D5">
-        <v>0.02996946118566157</v>
+        <v>0.04389750835380113</v>
       </c>
       <c r="E5">
-        <v>0.04248237801162702</v>
+        <v>0.07603434872967973</v>
       </c>
       <c r="F5">
-        <v>0.5530210580495023</v>
+        <v>0.3570684824132968</v>
       </c>
       <c r="G5">
-        <v>0.0007966229817147953</v>
+        <v>0.2662347375431011</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0003603607130818753</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2343363433646388</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.22340950896902</v>
       </c>
       <c r="L5">
-        <v>0.2377952767846381</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7324728737144071</v>
+        <v>0.2784134507607803</v>
       </c>
       <c r="O5">
-        <v>1.684155475117819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7898636445427769</v>
+      </c>
+      <c r="Q5">
+        <v>1.004646421585733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.077207490871047</v>
+        <v>1.774540915245467</v>
       </c>
       <c r="C6">
-        <v>0.2881369991227984</v>
+        <v>0.3124163734588166</v>
       </c>
       <c r="D6">
-        <v>0.02984911902153797</v>
+        <v>0.04362083758203283</v>
       </c>
       <c r="E6">
-        <v>0.04245929057941566</v>
+        <v>0.07587734135342927</v>
       </c>
       <c r="F6">
-        <v>0.5509077294065108</v>
+        <v>0.3557403314364223</v>
       </c>
       <c r="G6">
-        <v>0.0007968214175310129</v>
+        <v>0.265259563511421</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0003393232054006434</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2340686338185165</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.22342473343965</v>
       </c>
       <c r="L6">
-        <v>0.2362650208599604</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7336841774486089</v>
+        <v>0.2767587834337775</v>
       </c>
       <c r="O6">
-        <v>1.679179683924957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7897111099735952</v>
+      </c>
+      <c r="Q6">
+        <v>1.002005383153744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.181209804804098</v>
+        <v>1.862115131774857</v>
       </c>
       <c r="C7">
-        <v>0.2968208847573379</v>
+        <v>0.3211992883490353</v>
       </c>
       <c r="D7">
-        <v>0.03068387336220368</v>
+        <v>0.04553999345227311</v>
       </c>
       <c r="E7">
-        <v>0.0426270839080285</v>
+        <v>0.07696574144635804</v>
       </c>
       <c r="F7">
-        <v>0.5656829683645697</v>
+        <v>0.3650070697987573</v>
       </c>
       <c r="G7">
-        <v>0.0007954525042450089</v>
+        <v>0.2720692035030936</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0004972511386285294</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2359550573593339</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2233531875591943</v>
       </c>
       <c r="L7">
-        <v>0.2469071477066507</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7253676372225328</v>
+        <v>0.2882412654302726</v>
       </c>
       <c r="O7">
-        <v>1.714070525456663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7908224491840201</v>
+      </c>
+      <c r="Q7">
+        <v>1.02048205923775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.641727234141626</v>
+        <v>2.247875312242343</v>
       </c>
       <c r="C8">
-        <v>0.3350497009940483</v>
+        <v>0.3597364588123071</v>
       </c>
       <c r="D8">
-        <v>0.03435449313644767</v>
+        <v>0.0539798953281263</v>
       </c>
       <c r="E8">
-        <v>0.04356088650074064</v>
+        <v>0.0817372689328959</v>
       </c>
       <c r="F8">
-        <v>0.6336718334571856</v>
+        <v>0.4071425328395577</v>
       </c>
       <c r="G8">
-        <v>0.0007896177519888398</v>
+        <v>0.3031820600085453</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001504482190918255</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2450011758198869</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2239099342247286</v>
       </c>
       <c r="L8">
-        <v>0.2944214334232669</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6909832898629062</v>
+        <v>0.3388588305828506</v>
       </c>
       <c r="O8">
-        <v>1.87726507963967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7970574342833814</v>
+      </c>
+      <c r="Q8">
+        <v>1.105762581576471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.55326670018809</v>
+        <v>3.002551783618003</v>
       </c>
       <c r="C9">
-        <v>0.4098089472029187</v>
+        <v>0.4345708458947115</v>
       </c>
       <c r="D9">
-        <v>0.04151364011161718</v>
+        <v>0.07044572427176377</v>
       </c>
       <c r="E9">
-        <v>0.04615629451267544</v>
+        <v>0.09101580818204447</v>
       </c>
       <c r="F9">
-        <v>0.7786245228148658</v>
+        <v>0.4948236950698686</v>
       </c>
       <c r="G9">
-        <v>0.0007788844310358676</v>
+        <v>0.3685452430098479</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004752208491562326</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2655705977926459</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2284185798905582</v>
       </c>
       <c r="L9">
-        <v>0.390063983813576</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6324630433613905</v>
+        <v>0.4380901227920759</v>
       </c>
       <c r="O9">
-        <v>2.235448146610253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8143736109076087</v>
+      </c>
+      <c r="Q9">
+        <v>1.288080737698436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.231082053402929</v>
+        <v>3.541198885090694</v>
       </c>
       <c r="C10">
-        <v>0.4647416079550055</v>
+        <v>0.4941629307374171</v>
       </c>
       <c r="D10">
-        <v>0.046758557053451</v>
+        <v>0.08327168708454735</v>
       </c>
       <c r="E10">
-        <v>0.04859913449120512</v>
+        <v>0.09431291168081835</v>
       </c>
       <c r="F10">
-        <v>0.8938489681712696</v>
+        <v>0.5575262445873648</v>
       </c>
       <c r="G10">
-        <v>0.0007713984152662</v>
+        <v>0.4143152453350041</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008024085738135955</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2799397047188421</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2304488807684635</v>
       </c>
       <c r="L10">
-        <v>0.4623337740458737</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5954927165073585</v>
+        <v>0.4912596432631204</v>
       </c>
       <c r="O10">
-        <v>2.526970133674553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8371279598066792</v>
+      </c>
+      <c r="Q10">
+        <v>1.415656192753573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.541913229219233</v>
+        <v>3.650522905277569</v>
       </c>
       <c r="C11">
-        <v>0.4897665705478289</v>
+        <v>0.5672819251681744</v>
       </c>
       <c r="D11">
-        <v>0.04914358125306961</v>
+        <v>0.09602494405066864</v>
       </c>
       <c r="E11">
-        <v>0.04984354229554455</v>
+        <v>0.07218980446640533</v>
       </c>
       <c r="F11">
-        <v>0.9485566962753751</v>
+        <v>0.5402946134430024</v>
       </c>
       <c r="G11">
-        <v>0.0007680719858744744</v>
+        <v>0.3892594681223898</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02646129480864445</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2636300533841762</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2014906596435573</v>
       </c>
       <c r="L11">
-        <v>0.4957655613682448</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5801246867008061</v>
+        <v>0.3575224276291351</v>
       </c>
       <c r="O11">
-        <v>2.666977640417002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9102229408238713</v>
+      </c>
+      <c r="Q11">
+        <v>1.328568689961202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.660038532056319</v>
+        <v>3.626811727366146</v>
       </c>
       <c r="C12">
-        <v>0.4992509632525639</v>
+        <v>0.6200651529430559</v>
       </c>
       <c r="D12">
-        <v>0.05004678943022611</v>
+        <v>0.1045189800694857</v>
       </c>
       <c r="E12">
-        <v>0.05033541370005779</v>
+        <v>0.06201924754730492</v>
       </c>
       <c r="F12">
-        <v>0.9696381085773993</v>
+        <v>0.5122001473477482</v>
       </c>
       <c r="G12">
-        <v>0.0007668230379803687</v>
+        <v>0.3587699309883448</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06470770549915983</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2468212172011164</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1779279123502029</v>
       </c>
       <c r="L12">
-        <v>0.5085159688418202</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5745267012333741</v>
+        <v>0.2531190183474195</v>
       </c>
       <c r="O12">
-        <v>2.721168776356734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9726587854722624</v>
+      </c>
+      <c r="Q12">
+        <v>1.228799574959538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.634578394672758</v>
+        <v>3.499561532109283</v>
       </c>
       <c r="C13">
-        <v>0.4972079265027958</v>
+        <v>0.6596428182807301</v>
       </c>
       <c r="D13">
-        <v>0.04985226199741533</v>
+        <v>0.1101352448122981</v>
       </c>
       <c r="E13">
-        <v>0.05022853739638755</v>
+        <v>0.06028001652288095</v>
       </c>
       <c r="F13">
-        <v>0.9650810340974942</v>
+        <v>0.4740038198524203</v>
       </c>
       <c r="G13">
-        <v>0.0007670915564343623</v>
+        <v>0.3222652244653972</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1197346180291561</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.228586694178162</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1570396267969549</v>
       </c>
       <c r="L13">
-        <v>0.5057657372379083</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5757222555702199</v>
+        <v>0.1656584970266692</v>
       </c>
       <c r="O13">
-        <v>2.709443711073988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.029170876707042</v>
+      </c>
+      <c r="Q13">
+        <v>1.113206266632858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.551622670546578</v>
+        <v>3.364158849416981</v>
       </c>
       <c r="C14">
-        <v>0.4905466800569229</v>
+        <v>0.6814458734891673</v>
       </c>
       <c r="D14">
-        <v>0.04921788659246573</v>
+        <v>0.1127662599532613</v>
       </c>
       <c r="E14">
-        <v>0.04988358622052225</v>
+        <v>0.06401708941736572</v>
       </c>
       <c r="F14">
-        <v>0.950283554068065</v>
+        <v>0.4429423656827254</v>
       </c>
       <c r="G14">
-        <v>0.0007679690237702624</v>
+        <v>0.2943034078653852</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1684789890829421</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2153057694810485</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.143926587140065</v>
       </c>
       <c r="L14">
-        <v>0.496812667393641</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5796596185462519</v>
+        <v>0.1152396185142379</v>
       </c>
       <c r="O14">
-        <v>2.67141179947194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.066121118818629</v>
+      </c>
+      <c r="Q14">
+        <v>1.026062989301892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.500866564623379</v>
+        <v>3.309609162481763</v>
       </c>
       <c r="C15">
-        <v>0.4864676025684105</v>
+        <v>0.6833503478885063</v>
       </c>
       <c r="D15">
-        <v>0.04882932575975474</v>
+        <v>0.1127206517682708</v>
       </c>
       <c r="E15">
-        <v>0.04967502797837753</v>
+        <v>0.06549819001273072</v>
       </c>
       <c r="F15">
-        <v>0.9412682696394938</v>
+        <v>0.4333078105904065</v>
       </c>
       <c r="G15">
-        <v>0.0007685078706330242</v>
+        <v>0.2862113086465428</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1807253723226978</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.211785487485372</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1411431425402583</v>
       </c>
       <c r="L15">
-        <v>0.4913407697097085</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5821006239643296</v>
+        <v>0.1041335387072593</v>
       </c>
       <c r="O15">
-        <v>2.648272380357241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.072915106928306</v>
+      </c>
+      <c r="Q15">
+        <v>1.001503476128818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.210823809214617</v>
+        <v>3.106551132641414</v>
       </c>
       <c r="C16">
-        <v>0.4631071244434963</v>
+        <v>0.6480173670690874</v>
       </c>
       <c r="D16">
-        <v>0.04660268691549163</v>
+        <v>0.1058243476714722</v>
       </c>
       <c r="E16">
-        <v>0.04852061410803898</v>
+        <v>0.06432678993453145</v>
       </c>
       <c r="F16">
-        <v>0.8903227532883591</v>
+        <v>0.4141590038634959</v>
       </c>
       <c r="G16">
-        <v>0.0007716173394350415</v>
+        <v>0.2740991535282546</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.166663956148227</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2092624696154033</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1443636166652311</v>
       </c>
       <c r="L16">
-        <v>0.4601609994365958</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5965273239940885</v>
+        <v>0.1016945634994144</v>
       </c>
       <c r="O16">
-        <v>2.517978303242046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.047812843841854</v>
+      </c>
+      <c r="Q16">
+        <v>0.97035190440684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.033572329786239</v>
+        <v>3.022628923994887</v>
       </c>
       <c r="C17">
-        <v>0.4487873319365292</v>
+        <v>0.6093899832551415</v>
       </c>
       <c r="D17">
-        <v>0.04523660615678438</v>
+        <v>0.09915357323703944</v>
       </c>
       <c r="E17">
-        <v>0.04784755083214165</v>
+        <v>0.06066853372734826</v>
       </c>
       <c r="F17">
-        <v>0.8596804863002916</v>
+        <v>0.4160317778154905</v>
       </c>
       <c r="G17">
-        <v>0.0007735446751977959</v>
+        <v>0.2796424206578578</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.128197562392927</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2144111030064764</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1537396638262329</v>
       </c>
       <c r="L17">
-        <v>0.4411828651283116</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6057579913870512</v>
+        <v>0.1243746015207634</v>
       </c>
       <c r="O17">
-        <v>2.440016317830327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.009295529408249</v>
+      </c>
+      <c r="Q17">
+        <v>0.9927671421573052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.931852273187133</v>
+        <v>3.030907610830866</v>
       </c>
       <c r="C18">
-        <v>0.440554152334812</v>
+        <v>0.5649886728925821</v>
       </c>
       <c r="D18">
-        <v>0.04445077451904922</v>
+        <v>0.09208056434800937</v>
       </c>
       <c r="E18">
-        <v>0.04747285946278268</v>
+        <v>0.05889331800764652</v>
       </c>
       <c r="F18">
-        <v>0.8422692886910852</v>
+        <v>0.4361279273212517</v>
       </c>
       <c r="G18">
-        <v>0.0007746607056671743</v>
+        <v>0.3012536740904892</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07528884705049421</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2267861212508819</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1701679067694108</v>
       </c>
       <c r="L18">
-        <v>0.4303187867383684</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6112028669047262</v>
+        <v>0.1812529060469359</v>
       </c>
       <c r="O18">
-        <v>2.395863384308115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.957020543933325</v>
+      </c>
+      <c r="Q18">
+        <v>1.064432189132987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.897449350257148</v>
+        <v>3.112617299174303</v>
       </c>
       <c r="C19">
-        <v>0.4377670045595323</v>
+        <v>0.5210653803524963</v>
       </c>
       <c r="D19">
-        <v>0.04418468330324288</v>
+        <v>0.08540977437829156</v>
       </c>
       <c r="E19">
-        <v>0.04734808763681642</v>
+        <v>0.06534029954535381</v>
       </c>
       <c r="F19">
-        <v>0.8364097819237202</v>
+        <v>0.4697777625739477</v>
       </c>
       <c r="G19">
-        <v>0.0007750398781260932</v>
+        <v>0.3350025788698616</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03065868236323155</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2443455841148534</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1923181994577128</v>
       </c>
       <c r="L19">
-        <v>0.4266489572984256</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6130693223860249</v>
+        <v>0.2769014724765384</v>
       </c>
       <c r="O19">
-        <v>2.381029030996245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9004063972673748</v>
+      </c>
+      <c r="Q19">
+        <v>1.172736353531803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.052416781676698</v>
+        <v>3.399157505274559</v>
       </c>
       <c r="C20">
-        <v>0.4503113488781025</v>
+        <v>0.4787306452024609</v>
       </c>
       <c r="D20">
-        <v>0.04538203667451768</v>
+        <v>0.07993484021244512</v>
       </c>
       <c r="E20">
-        <v>0.04791790191811707</v>
+        <v>0.093292153301757</v>
       </c>
       <c r="F20">
-        <v>0.8629200726523152</v>
+        <v>0.5405702523929961</v>
       </c>
       <c r="G20">
-        <v>0.0007733387378061063</v>
+        <v>0.4018375924727735</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007072474812258811</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2759124726402007</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.229590954501198</v>
       </c>
       <c r="L20">
-        <v>0.443197701150666</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6047612414115378</v>
+        <v>0.4764637517343289</v>
       </c>
       <c r="O20">
-        <v>2.44824345120287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8311460081681474</v>
+      </c>
+      <c r="Q20">
+        <v>1.380653761698653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.575976848957168</v>
+        <v>3.836434448184036</v>
       </c>
       <c r="C21">
-        <v>0.4925030090237783</v>
+        <v>0.5166421974284674</v>
       </c>
       <c r="D21">
-        <v>0.04940421508518256</v>
+        <v>0.08859888839792518</v>
       </c>
       <c r="E21">
-        <v>0.04998433409102176</v>
+        <v>0.1012588319099841</v>
       </c>
       <c r="F21">
-        <v>0.9546197376978114</v>
+        <v>0.598335950027618</v>
       </c>
       <c r="G21">
-        <v>0.0007677110055177482</v>
+        <v>0.4465197674349639</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01001169297011034</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.291809805859458</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2376135460521311</v>
       </c>
       <c r="L21">
-        <v>0.4994398559600626</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5784969978031071</v>
+        <v>0.5480892133264348</v>
       </c>
       <c r="O21">
-        <v>2.68254992736891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8395820622094021</v>
+      </c>
+      <c r="Q21">
+        <v>1.509008657633956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.920636086255115</v>
+        <v>4.114560320940825</v>
       </c>
       <c r="C22">
-        <v>0.5201257438666289</v>
+        <v>0.5439053486554428</v>
       </c>
       <c r="D22">
-        <v>0.05203333856971426</v>
+        <v>0.09464776288565702</v>
       </c>
       <c r="E22">
-        <v>0.05145595367167388</v>
+        <v>0.1046834882641505</v>
       </c>
       <c r="F22">
-        <v>1.016695418220692</v>
+        <v>0.6342106288784066</v>
       </c>
       <c r="G22">
-        <v>0.0007640949747644843</v>
+        <v>0.4737110022846736</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01211542447853306</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3012577342753389</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2415211895380018</v>
       </c>
       <c r="L22">
-        <v>0.5367304802933148</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5626299575678928</v>
+        <v>0.584863436692487</v>
       </c>
       <c r="O22">
-        <v>2.842579490659347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8491646542950804</v>
+      </c>
+      <c r="Q22">
+        <v>1.586651675448593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.736435856061405</v>
+        <v>3.966096642191417</v>
       </c>
       <c r="C23">
-        <v>0.5053775651174135</v>
+        <v>0.5293583227773979</v>
       </c>
       <c r="D23">
-        <v>0.05063002418452101</v>
+        <v>0.09141914901410075</v>
       </c>
       <c r="E23">
-        <v>0.05065892026720853</v>
+        <v>0.1028546476724568</v>
       </c>
       <c r="F23">
-        <v>0.9833558340456818</v>
+        <v>0.6149811814852271</v>
       </c>
       <c r="G23">
-        <v>0.000766019474942694</v>
+        <v>0.4591261950262862</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01097162830850489</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.29617389676865</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2393862161103861</v>
       </c>
       <c r="L23">
-        <v>0.5167752711438993</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.570975141788054</v>
+        <v>0.5652279235358151</v>
       </c>
       <c r="O23">
-        <v>2.756498875946988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8439818920500528</v>
+      </c>
+      <c r="Q23">
+        <v>1.544972951794563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.043896635942701</v>
+        <v>3.404224654232337</v>
       </c>
       <c r="C24">
-        <v>0.4496223427119617</v>
+        <v>0.4741714781212636</v>
       </c>
       <c r="D24">
-        <v>0.04531628896409501</v>
+        <v>0.0791937690303115</v>
       </c>
       <c r="E24">
-        <v>0.04788605811149971</v>
+        <v>0.09594687978868421</v>
       </c>
       <c r="F24">
-        <v>0.8614548183648623</v>
+        <v>0.5438936279195588</v>
       </c>
       <c r="G24">
-        <v>0.0007734318172165513</v>
+        <v>0.4054135864154773</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007082624850170111</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2777982736694042</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2323518081777927</v>
       </c>
       <c r="L24">
-        <v>0.4422866491024848</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6052114430813589</v>
+        <v>0.4910277461320192</v>
       </c>
       <c r="O24">
-        <v>2.444521890363546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8258161587239243</v>
+      </c>
+      <c r="Q24">
+        <v>1.392180016969604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.305473848216138</v>
+        <v>2.798509395275858</v>
       </c>
       <c r="C25">
-        <v>0.3895937147379129</v>
+        <v>0.4143987555231661</v>
       </c>
       <c r="D25">
-        <v>0.03958020671279172</v>
+        <v>0.0659983080147839</v>
       </c>
       <c r="E25">
-        <v>0.04536539094768521</v>
+        <v>0.08851065603463049</v>
       </c>
       <c r="F25">
-        <v>0.7380038877951733</v>
+        <v>0.4705039280262682</v>
       </c>
       <c r="G25">
-        <v>0.0007817154260123027</v>
+        <v>0.3503440407773866</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003721946000173504</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2596794676555021</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2268052793081949</v>
       </c>
       <c r="L25">
-        <v>0.3638768191725035</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6472819228814828</v>
+        <v>0.4112320403397405</v>
       </c>
       <c r="O25">
-        <v>2.133960011591455</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8091133905942911</v>
+      </c>
+      <c r="Q25">
+        <v>1.236982415097856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.35224911534948</v>
+        <v>2.296595291901269</v>
       </c>
       <c r="C2">
-        <v>0.3701260553039134</v>
+        <v>0.3855969637315155</v>
       </c>
       <c r="D2">
-        <v>0.05626022433299482</v>
+        <v>0.05890126547572549</v>
       </c>
       <c r="E2">
-        <v>0.0830235870111693</v>
+        <v>0.07896754721200416</v>
       </c>
       <c r="F2">
-        <v>0.4188804216945456</v>
+        <v>0.4030197393185091</v>
       </c>
       <c r="G2">
-        <v>0.311887849140021</v>
+        <v>0.2792810497075919</v>
       </c>
       <c r="H2">
-        <v>0.001858043912129181</v>
+        <v>0.001753445355352601</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2476354158066414</v>
+        <v>0.284169313070727</v>
       </c>
       <c r="K2">
-        <v>0.2242821943040418</v>
+        <v>0.21038595947714</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1322203007602596</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04203369774534416</v>
       </c>
       <c r="N2">
-        <v>0.3525658103922638</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7990803658450432</v>
+        <v>0.357009616185394</v>
       </c>
       <c r="Q2">
-        <v>1.129833018030865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8220579526380192</v>
+      </c>
+      <c r="S2">
+        <v>1.080857805382465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.049385116848725</v>
+        <v>2.006907405179277</v>
       </c>
       <c r="C3">
-        <v>0.3399362875897367</v>
+        <v>0.3487647561406675</v>
       </c>
       <c r="D3">
-        <v>0.04963977782091433</v>
+        <v>0.05165129867190643</v>
       </c>
       <c r="E3">
-        <v>0.07928611712554456</v>
+        <v>0.07580323361633923</v>
       </c>
       <c r="F3">
-        <v>0.3852059087474302</v>
+        <v>0.3725763140197742</v>
       </c>
       <c r="G3">
-        <v>0.2869553105926741</v>
+        <v>0.2571515743373851</v>
       </c>
       <c r="H3">
-        <v>0.0009251430005552397</v>
+        <v>0.0009078559480838466</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2402040480696996</v>
+        <v>0.2767096780329581</v>
       </c>
       <c r="K3">
-        <v>0.2234545097290059</v>
+        <v>0.211211549040101</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1368590415938549</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03892680710440111</v>
       </c>
       <c r="N3">
-        <v>0.3128058484398366</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7935914245146876</v>
+        <v>0.3169173505909839</v>
       </c>
       <c r="Q3">
-        <v>1.061125258250314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8092578671011594</v>
+      </c>
+      <c r="S3">
+        <v>1.021697544706981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.863139451367203</v>
+        <v>1.828458401274816</v>
       </c>
       <c r="C4">
-        <v>0.3213019364588376</v>
+        <v>0.3261467295236002</v>
       </c>
       <c r="D4">
-        <v>0.04556243320940467</v>
+        <v>0.04719694124281659</v>
       </c>
       <c r="E4">
-        <v>0.07697845834021422</v>
+        <v>0.07384254700197168</v>
       </c>
       <c r="F4">
-        <v>0.3651161557053797</v>
+        <v>0.354351801931962</v>
       </c>
       <c r="G4">
-        <v>0.2721494424591953</v>
+        <v>0.2440317118925961</v>
       </c>
       <c r="H4">
-        <v>0.0004992617152708156</v>
+        <v>0.0005133137264757837</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.235977515047523</v>
+        <v>0.2722926407242028</v>
       </c>
       <c r="K4">
-        <v>0.2233528150213537</v>
+        <v>0.2120285835559166</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1398721011153263</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0375949062513552</v>
       </c>
       <c r="N4">
-        <v>0.2883755886939952</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.790836167783155</v>
+        <v>0.292294414589847</v>
       </c>
       <c r="Q4">
-        <v>1.020700235839627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8020746658686448</v>
+      </c>
+      <c r="S4">
+        <v>0.9867480448116481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.787162034385659</v>
+        <v>1.755587458657516</v>
       </c>
       <c r="C5">
-        <v>0.3136830309214531</v>
+        <v>0.3169282036960368</v>
       </c>
       <c r="D5">
-        <v>0.04389750835380113</v>
+        <v>0.04538074944023407</v>
       </c>
       <c r="E5">
-        <v>0.07603434872967973</v>
+        <v>0.07303867848547796</v>
       </c>
       <c r="F5">
-        <v>0.3570684824132968</v>
+        <v>0.3470356475168046</v>
       </c>
       <c r="G5">
-        <v>0.2662347375431011</v>
+        <v>0.2387950671719494</v>
       </c>
       <c r="H5">
-        <v>0.0003603607130818753</v>
+        <v>0.0003819491035089717</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2343363433646388</v>
+        <v>0.2705320444168109</v>
       </c>
       <c r="K5">
-        <v>0.22340950896902</v>
+        <v>0.2124363251286177</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1411413283671443</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03719471616370384</v>
       </c>
       <c r="N5">
-        <v>0.2784134507607803</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7898636445427769</v>
+        <v>0.282256984917268</v>
       </c>
       <c r="Q5">
-        <v>1.004646421585733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7993137280172604</v>
+      </c>
+      <c r="S5">
+        <v>0.9728322580655373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.774540915245467</v>
+        <v>1.743477982685818</v>
       </c>
       <c r="C6">
-        <v>0.3124163734588166</v>
+        <v>0.315397363503692</v>
       </c>
       <c r="D6">
-        <v>0.04362083758203283</v>
+        <v>0.04507910330218579</v>
       </c>
       <c r="E6">
-        <v>0.07587734135342927</v>
+        <v>0.07290489099270658</v>
       </c>
       <c r="F6">
-        <v>0.3557403314364223</v>
+        <v>0.3458272738974273</v>
       </c>
       <c r="G6">
-        <v>0.265259563511421</v>
+        <v>0.237931935379784</v>
       </c>
       <c r="H6">
-        <v>0.0003393232054006434</v>
+        <v>0.0003618572487755767</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2340686338185165</v>
+        <v>0.2702420300808086</v>
       </c>
       <c r="K6">
-        <v>0.22342473343965</v>
+        <v>0.2125084563822774</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1413545799679703</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03713681322134477</v>
       </c>
       <c r="N6">
-        <v>0.2767587834337775</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7897111099735952</v>
+        <v>0.2805900207891483</v>
       </c>
       <c r="Q6">
-        <v>1.002005383153744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7988652138318884</v>
+      </c>
+      <c r="S6">
+        <v>0.9705407142720617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.862115131774857</v>
+        <v>1.82630682070166</v>
       </c>
       <c r="C7">
-        <v>0.3211992883490353</v>
+        <v>0.325576429461492</v>
       </c>
       <c r="D7">
-        <v>0.04553999345227311</v>
+        <v>0.04727249245091514</v>
       </c>
       <c r="E7">
-        <v>0.07696574144635804</v>
+        <v>0.07385439986364695</v>
       </c>
       <c r="F7">
-        <v>0.3650070697987573</v>
+        <v>0.3535543125220215</v>
       </c>
       <c r="G7">
-        <v>0.2720692035030936</v>
+        <v>0.2467684676611341</v>
       </c>
       <c r="H7">
-        <v>0.0004972511386285294</v>
+        <v>0.0005099686767530143</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2359550573593339</v>
+        <v>0.2681881712447023</v>
       </c>
       <c r="K7">
-        <v>0.2233531875591943</v>
+        <v>0.2117565458566553</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1397447735787338</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03752048362858318</v>
       </c>
       <c r="N7">
-        <v>0.2882412654302726</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7908224491840201</v>
+        <v>0.2920724108512616</v>
       </c>
       <c r="Q7">
-        <v>1.02048205923775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8025324336082278</v>
+      </c>
+      <c r="S7">
+        <v>0.9843302367628581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.247875312242343</v>
+        <v>2.192906943306298</v>
       </c>
       <c r="C8">
-        <v>0.3597364588123071</v>
+        <v>0.3713926036613344</v>
       </c>
       <c r="D8">
-        <v>0.0539798953281263</v>
+        <v>0.05673954450901419</v>
       </c>
       <c r="E8">
-        <v>0.0817372689328959</v>
+        <v>0.07795795726819854</v>
       </c>
       <c r="F8">
-        <v>0.4071425328395577</v>
+        <v>0.3900965239953536</v>
       </c>
       <c r="G8">
-        <v>0.3031820600085453</v>
+        <v>0.2809622956978473</v>
       </c>
       <c r="H8">
-        <v>0.001504482190918255</v>
+        <v>0.001427290136601811</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2450011758198869</v>
+        <v>0.26823016361746</v>
       </c>
       <c r="K8">
-        <v>0.2239099342247286</v>
+        <v>0.209694812298963</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1333584249255146</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04057086821183375</v>
       </c>
       <c r="N8">
-        <v>0.3388588305828506</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7970574342833814</v>
+        <v>0.3428973608521488</v>
       </c>
       <c r="Q8">
-        <v>1.105762581576471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.81921622575139</v>
+      </c>
+      <c r="S8">
+        <v>1.052761703484464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.002551783618003</v>
+        <v>2.911777080455352</v>
       </c>
       <c r="C9">
-        <v>0.4345708458947115</v>
+        <v>0.4628735014164249</v>
       </c>
       <c r="D9">
-        <v>0.07044572427176377</v>
+        <v>0.074932310304483</v>
       </c>
       <c r="E9">
-        <v>0.09101580818204447</v>
+        <v>0.08579991866584358</v>
       </c>
       <c r="F9">
-        <v>0.4948236950698686</v>
+        <v>0.4683421430097496</v>
       </c>
       <c r="G9">
-        <v>0.3685452430098479</v>
+        <v>0.3417801554767834</v>
       </c>
       <c r="H9">
-        <v>0.004752208491562326</v>
+        <v>0.004309062666545127</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2655705977926459</v>
+        <v>0.2841413232726637</v>
       </c>
       <c r="K9">
-        <v>0.2284185798905582</v>
+        <v>0.2092683602968393</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1226754830743211</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05147008410973442</v>
       </c>
       <c r="N9">
-        <v>0.4380901227920759</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8143736109076087</v>
+        <v>0.442922112059307</v>
       </c>
       <c r="Q9">
-        <v>1.288080737698436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8556795708878155</v>
+      </c>
+      <c r="S9">
+        <v>1.206869799074212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.541198885090694</v>
+        <v>3.416900176920649</v>
       </c>
       <c r="C10">
-        <v>0.4941629307374171</v>
+        <v>0.5321541296720511</v>
       </c>
       <c r="D10">
-        <v>0.08327168708454735</v>
+        <v>0.08966490358697854</v>
       </c>
       <c r="E10">
-        <v>0.09431291168081835</v>
+        <v>0.08840740534961355</v>
       </c>
       <c r="F10">
-        <v>0.5575262445873648</v>
+        <v>0.5198711311852762</v>
       </c>
       <c r="G10">
-        <v>0.4143152453350041</v>
+        <v>0.4016142657408039</v>
       </c>
       <c r="H10">
-        <v>0.008024085738135955</v>
+        <v>0.007162261730829123</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2799397047188421</v>
+        <v>0.27227306563735</v>
       </c>
       <c r="K10">
-        <v>0.2304488807684635</v>
+        <v>0.2061884378385237</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1140057716594551</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06059511007899232</v>
       </c>
       <c r="N10">
-        <v>0.4912596432631204</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8371279598066792</v>
+        <v>0.4959812750379626</v>
       </c>
       <c r="Q10">
-        <v>1.415656192753573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8959496137539844</v>
+      </c>
+      <c r="S10">
+        <v>1.300460921434563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.650522905277569</v>
+        <v>3.512301570818408</v>
       </c>
       <c r="C11">
-        <v>0.5672819251681744</v>
+        <v>0.6018994619987836</v>
       </c>
       <c r="D11">
-        <v>0.09602494405066864</v>
+        <v>0.1041938801744067</v>
       </c>
       <c r="E11">
-        <v>0.07218980446640533</v>
+        <v>0.06809056507137878</v>
       </c>
       <c r="F11">
-        <v>0.5402946134430024</v>
+        <v>0.4956831228913572</v>
       </c>
       <c r="G11">
-        <v>0.3892594681223898</v>
+        <v>0.4161113387987569</v>
       </c>
       <c r="H11">
-        <v>0.02646129480864445</v>
+        <v>0.0254924570564512</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2636300533841762</v>
+        <v>0.2166503727047484</v>
       </c>
       <c r="K11">
-        <v>0.2014906596435573</v>
+        <v>0.1778899125240159</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1010764832862243</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05356993961187229</v>
       </c>
       <c r="N11">
-        <v>0.3575224276291351</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9102229408238713</v>
+        <v>0.3598702142651717</v>
       </c>
       <c r="Q11">
-        <v>1.328568689961202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9825182360737443</v>
+      </c>
+      <c r="S11">
+        <v>1.194257332943181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.626811727366146</v>
+        <v>3.488616870763053</v>
       </c>
       <c r="C12">
-        <v>0.6200651529430559</v>
+        <v>0.6505907209337352</v>
       </c>
       <c r="D12">
-        <v>0.1045189800694857</v>
+        <v>0.1134201223471649</v>
       </c>
       <c r="E12">
-        <v>0.06201924754730492</v>
+        <v>0.05915132904688702</v>
       </c>
       <c r="F12">
-        <v>0.5122001473477482</v>
+        <v>0.4668786981028958</v>
       </c>
       <c r="G12">
-        <v>0.3587699309883448</v>
+        <v>0.4041608465238085</v>
       </c>
       <c r="H12">
-        <v>0.06470770549915983</v>
+        <v>0.06374053386770129</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2468212172011164</v>
+        <v>0.1884518501075831</v>
       </c>
       <c r="K12">
-        <v>0.1779279123502029</v>
+        <v>0.157047061386006</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09313141713784745</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04626001608260921</v>
       </c>
       <c r="N12">
-        <v>0.2531190183474195</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9726587854722624</v>
+        <v>0.2540648288507299</v>
       </c>
       <c r="Q12">
-        <v>1.228799574959538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.050489557590765</v>
+      </c>
+      <c r="S12">
+        <v>1.094585600668495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.499561532109283</v>
+        <v>3.375162003720504</v>
       </c>
       <c r="C13">
-        <v>0.6596428182807301</v>
+        <v>0.6870086230535151</v>
       </c>
       <c r="D13">
-        <v>0.1101352448122981</v>
+        <v>0.1185929010456732</v>
       </c>
       <c r="E13">
-        <v>0.06028001652288095</v>
+        <v>0.05838832125971383</v>
       </c>
       <c r="F13">
-        <v>0.4740038198524203</v>
+        <v>0.4341416962259359</v>
       </c>
       <c r="G13">
-        <v>0.3222652244653972</v>
+        <v>0.3640681899061491</v>
       </c>
       <c r="H13">
-        <v>0.1197346180291561</v>
+        <v>0.1188589680326402</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.228586694178162</v>
+        <v>0.1807147987998832</v>
       </c>
       <c r="K13">
-        <v>0.1570396267969549</v>
+        <v>0.1407234290305652</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08799921656144427</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03870868769240765</v>
       </c>
       <c r="N13">
-        <v>0.1656584970266692</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.029170876707042</v>
+        <v>0.1658516510976114</v>
       </c>
       <c r="Q13">
-        <v>1.113206266632858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.104070320463535</v>
+      </c>
+      <c r="S13">
+        <v>0.9975719509153294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.364158849416981</v>
+        <v>3.255250513868475</v>
       </c>
       <c r="C14">
-        <v>0.6814458734891673</v>
+        <v>0.707082376329339</v>
       </c>
       <c r="D14">
-        <v>0.1127662599532613</v>
+        <v>0.1203552273602071</v>
       </c>
       <c r="E14">
-        <v>0.06401708941736572</v>
+        <v>0.06273632239314253</v>
       </c>
       <c r="F14">
-        <v>0.4429423656827254</v>
+        <v>0.4093582501325557</v>
       </c>
       <c r="G14">
-        <v>0.2943034078653852</v>
+        <v>0.3249942566624497</v>
       </c>
       <c r="H14">
-        <v>0.1684789890829421</v>
+        <v>0.1677001536553604</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2153057694810485</v>
+        <v>0.1829459170258545</v>
       </c>
       <c r="K14">
-        <v>0.143926587140065</v>
+        <v>0.1313167616632853</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08548767715249639</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03349795640354181</v>
       </c>
       <c r="N14">
-        <v>0.1152396185142379</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.066121118818629</v>
+        <v>0.1151208890604636</v>
       </c>
       <c r="Q14">
-        <v>1.026062989301892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.134793560544423</v>
+      </c>
+      <c r="S14">
+        <v>0.9304653050091645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.309609162481763</v>
+        <v>3.207030320485842</v>
       </c>
       <c r="C15">
-        <v>0.6833503478885063</v>
+        <v>0.7088222663186627</v>
       </c>
       <c r="D15">
-        <v>0.1127206517682708</v>
+        <v>0.1198615265782905</v>
       </c>
       <c r="E15">
-        <v>0.06549819001273072</v>
+        <v>0.06438049685578662</v>
       </c>
       <c r="F15">
-        <v>0.4333078105904065</v>
+        <v>0.4023178950231383</v>
       </c>
       <c r="G15">
-        <v>0.2862113086465428</v>
+        <v>0.3107238313210416</v>
       </c>
       <c r="H15">
-        <v>0.1807253723226978</v>
+        <v>0.1799901756665747</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.211785487485372</v>
+        <v>0.1868324672265018</v>
       </c>
       <c r="K15">
-        <v>0.1411431425402583</v>
+        <v>0.1296899274223211</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08527207371558987</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03216130138037876</v>
       </c>
       <c r="N15">
-        <v>0.1041335387072593</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.072915106928306</v>
+        <v>0.1040031023983943</v>
       </c>
       <c r="Q15">
-        <v>1.001503476128818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.138331601374531</v>
+      </c>
+      <c r="S15">
+        <v>0.9138516974434765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.106551132641414</v>
+        <v>3.026019689203338</v>
       </c>
       <c r="C16">
-        <v>0.6480173670690874</v>
+        <v>0.6751394679140503</v>
       </c>
       <c r="D16">
-        <v>0.1058243476714722</v>
+        <v>0.1110337330369475</v>
       </c>
       <c r="E16">
-        <v>0.06432678993453145</v>
+        <v>0.06338698536699816</v>
       </c>
       <c r="F16">
-        <v>0.4141590038634959</v>
+        <v>0.3923245691470996</v>
       </c>
       <c r="G16">
-        <v>0.2740991535282546</v>
+        <v>0.2701562288186921</v>
       </c>
       <c r="H16">
-        <v>0.166663956148227</v>
+        <v>0.1661235404270371</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2092624696154033</v>
+        <v>0.2172318386620589</v>
       </c>
       <c r="K16">
-        <v>0.1443636166652311</v>
+        <v>0.1353689818615678</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08903612228010616</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03112148207638477</v>
       </c>
       <c r="N16">
-        <v>0.1016945634994144</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.047812843841854</v>
+        <v>0.1021092919839504</v>
       </c>
       <c r="Q16">
-        <v>0.97035190440684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.09899849545458</v>
+      </c>
+      <c r="S16">
+        <v>0.9093981101341342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.022628923994887</v>
+        <v>2.948985750021222</v>
       </c>
       <c r="C17">
-        <v>0.6093899832551415</v>
+        <v>0.6376234113021439</v>
       </c>
       <c r="D17">
-        <v>0.09915357323703944</v>
+        <v>0.1036030593340627</v>
       </c>
       <c r="E17">
-        <v>0.06066853372734826</v>
+        <v>0.05945095442872095</v>
       </c>
       <c r="F17">
-        <v>0.4160317778154905</v>
+        <v>0.397091230454258</v>
       </c>
       <c r="G17">
-        <v>0.2796424206578578</v>
+        <v>0.2630980052268015</v>
       </c>
       <c r="H17">
-        <v>0.128197562392927</v>
+        <v>0.1277458584016813</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2144111030064764</v>
+        <v>0.2371215416212493</v>
       </c>
       <c r="K17">
-        <v>0.1537396638262329</v>
+        <v>0.1446758219369215</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09355897942030111</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03285221727815646</v>
       </c>
       <c r="N17">
-        <v>0.1243746015207634</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.009295529408249</v>
+        <v>0.1253952730403327</v>
       </c>
       <c r="Q17">
-        <v>0.9927671421573052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.054609433384002</v>
+      </c>
+      <c r="S17">
+        <v>0.9396538105120698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.030907610830866</v>
+        <v>2.95480553333266</v>
       </c>
       <c r="C18">
-        <v>0.5649886728925821</v>
+        <v>0.5950265295100223</v>
       </c>
       <c r="D18">
-        <v>0.09208056434800937</v>
+        <v>0.09637527312358429</v>
       </c>
       <c r="E18">
-        <v>0.05889331800764652</v>
+        <v>0.05690120239838414</v>
       </c>
       <c r="F18">
-        <v>0.4361279273212517</v>
+        <v>0.4165272292787705</v>
       </c>
       <c r="G18">
-        <v>0.3012536740904892</v>
+        <v>0.2774058166448441</v>
       </c>
       <c r="H18">
-        <v>0.07528884705049421</v>
+        <v>0.07485664239417389</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2267861212508819</v>
+        <v>0.25513019907131</v>
       </c>
       <c r="K18">
-        <v>0.1701679067694108</v>
+        <v>0.1592020819510971</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09969571816422906</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03738471424935597</v>
       </c>
       <c r="N18">
-        <v>0.1812529060469359</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.957020543933325</v>
+        <v>0.1831776430215228</v>
       </c>
       <c r="Q18">
-        <v>1.064432189132987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.000953672646531</v>
+      </c>
+      <c r="S18">
+        <v>1.008244860078577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.112617299174303</v>
+        <v>3.02775016015255</v>
       </c>
       <c r="C19">
-        <v>0.5210653803524963</v>
+        <v>0.5535245156258668</v>
       </c>
       <c r="D19">
-        <v>0.08540977437829156</v>
+        <v>0.08989329945131175</v>
       </c>
       <c r="E19">
-        <v>0.06534029954535381</v>
+        <v>0.06207930824294916</v>
       </c>
       <c r="F19">
-        <v>0.4697777625739477</v>
+        <v>0.4471930215772204</v>
       </c>
       <c r="G19">
-        <v>0.3350025788698616</v>
+        <v>0.306158623525576</v>
       </c>
       <c r="H19">
-        <v>0.03065868236323155</v>
+        <v>0.03018142273987934</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2443455841148534</v>
+        <v>0.272981243755936</v>
       </c>
       <c r="K19">
-        <v>0.1923181994577128</v>
+        <v>0.1780282411825738</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1070562495912419</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04431270665309484</v>
       </c>
       <c r="N19">
-        <v>0.2769014724765384</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9004063972673748</v>
+        <v>0.2800431263120373</v>
       </c>
       <c r="Q19">
-        <v>1.172736353531803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9454546133606527</v>
+      </c>
+      <c r="S19">
+        <v>1.106165239190091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.399157505274559</v>
+        <v>3.288196625579303</v>
       </c>
       <c r="C20">
-        <v>0.4787306452024609</v>
+        <v>0.5158344472016267</v>
       </c>
       <c r="D20">
-        <v>0.07993484021244512</v>
+        <v>0.08543958029731868</v>
       </c>
       <c r="E20">
-        <v>0.093292153301757</v>
+        <v>0.08749147069796415</v>
       </c>
       <c r="F20">
-        <v>0.5405702523929961</v>
+        <v>0.5084526646766463</v>
       </c>
       <c r="G20">
-        <v>0.4018375924727735</v>
+        <v>0.3749824169731255</v>
       </c>
       <c r="H20">
-        <v>0.007072474812258811</v>
+        <v>0.00634679342011113</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2759124726402007</v>
+        <v>0.2887785630325794</v>
       </c>
       <c r="K20">
-        <v>0.229590954501198</v>
+        <v>0.2076843440643756</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1164941159339001</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05835195350771372</v>
       </c>
       <c r="N20">
-        <v>0.4764637517343289</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8311460081681474</v>
+        <v>0.4815168128773593</v>
       </c>
       <c r="Q20">
-        <v>1.380653761698653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8832978204988393</v>
+      </c>
+      <c r="S20">
+        <v>1.282613465107488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.836434448184036</v>
+        <v>3.67348552361176</v>
       </c>
       <c r="C21">
-        <v>0.5166421974284674</v>
+        <v>0.5528093274000128</v>
       </c>
       <c r="D21">
-        <v>0.08859888839792518</v>
+        <v>0.0976773098747401</v>
       </c>
       <c r="E21">
-        <v>0.1012588319099841</v>
+        <v>0.09504243091815745</v>
       </c>
       <c r="F21">
-        <v>0.598335950027618</v>
+        <v>0.5430249001954905</v>
       </c>
       <c r="G21">
-        <v>0.4465197674349639</v>
+        <v>0.4880925181908253</v>
       </c>
       <c r="H21">
-        <v>0.01001169297011034</v>
+        <v>0.008795751768073234</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.291809805859458</v>
+        <v>0.2192300959366378</v>
       </c>
       <c r="K21">
-        <v>0.2376135460521311</v>
+        <v>0.2055557260395062</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.110097321339941</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0660555440859838</v>
       </c>
       <c r="N21">
-        <v>0.5480892133264348</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8395820622094021</v>
+        <v>0.5516863865035759</v>
       </c>
       <c r="Q21">
-        <v>1.509008657633956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9163730527172902</v>
+      </c>
+      <c r="S21">
+        <v>1.338428627772487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.114560320940825</v>
+        <v>3.915703119810757</v>
       </c>
       <c r="C22">
-        <v>0.5439053486554428</v>
+        <v>0.5786052953492913</v>
       </c>
       <c r="D22">
-        <v>0.09464776288565702</v>
+        <v>0.1062912519081749</v>
       </c>
       <c r="E22">
-        <v>0.1046834882641505</v>
+        <v>0.09840187871653505</v>
       </c>
       <c r="F22">
-        <v>0.6342106288784066</v>
+        <v>0.562619844956437</v>
       </c>
       <c r="G22">
-        <v>0.4737110022846736</v>
+        <v>0.5692962360582641</v>
       </c>
       <c r="H22">
-        <v>0.01211542447853306</v>
+        <v>0.01053892106816404</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3012577342753389</v>
+        <v>0.1781352321700567</v>
       </c>
       <c r="K22">
-        <v>0.2415211895380018</v>
+        <v>0.2025987353389667</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.105529353533715</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0707194816011949</v>
       </c>
       <c r="N22">
-        <v>0.584863436692487</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8491646542950804</v>
+        <v>0.5872403672386781</v>
       </c>
       <c r="Q22">
-        <v>1.586651675448593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9434188627550242</v>
+      </c>
+      <c r="S22">
+        <v>1.365381990943291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.966096642191417</v>
+        <v>3.789743613610312</v>
       </c>
       <c r="C23">
-        <v>0.5293583227773979</v>
+        <v>0.5660789576617447</v>
       </c>
       <c r="D23">
-        <v>0.09141914901410075</v>
+        <v>0.1013947748122419</v>
       </c>
       <c r="E23">
-        <v>0.1028546476724568</v>
+        <v>0.09652804636544232</v>
       </c>
       <c r="F23">
-        <v>0.6149811814852271</v>
+        <v>0.5539934234695352</v>
       </c>
       <c r="G23">
-        <v>0.4591261950262862</v>
+        <v>0.5167872281576109</v>
       </c>
       <c r="H23">
-        <v>0.01097162830850489</v>
+        <v>0.009602992627497781</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.29617389676865</v>
+        <v>0.2064538567552958</v>
       </c>
       <c r="K23">
-        <v>0.2393862161103861</v>
+        <v>0.2048473617912876</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1081713540785199</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06849869812981524</v>
       </c>
       <c r="N23">
-        <v>0.5652279235358151</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8439818920500528</v>
+        <v>0.5684938089048899</v>
       </c>
       <c r="Q23">
-        <v>1.544972951794563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9273038438177821</v>
+      </c>
+      <c r="S23">
+        <v>1.356766311976486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.404224654232337</v>
+        <v>3.292633885916871</v>
       </c>
       <c r="C24">
-        <v>0.4741714781212636</v>
+        <v>0.5114072824011657</v>
       </c>
       <c r="D24">
-        <v>0.0791937690303115</v>
+        <v>0.08468612060001846</v>
       </c>
       <c r="E24">
-        <v>0.09594687978868421</v>
+        <v>0.08995753908710213</v>
       </c>
       <c r="F24">
-        <v>0.5438936279195588</v>
+        <v>0.5115682213815944</v>
       </c>
       <c r="G24">
-        <v>0.4054135864154773</v>
+        <v>0.3776105728224906</v>
       </c>
       <c r="H24">
-        <v>0.007082624850170111</v>
+        <v>0.006349327612618638</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2777982736694042</v>
+        <v>0.2912183075103485</v>
       </c>
       <c r="K24">
-        <v>0.2323518081777927</v>
+        <v>0.2100747190202874</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1174652318179703</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05917907994970051</v>
       </c>
       <c r="N24">
-        <v>0.4910277461320192</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8258161587239243</v>
+        <v>0.4962509570544995</v>
       </c>
       <c r="Q24">
-        <v>1.392180016969604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8777681498279151</v>
+      </c>
+      <c r="S24">
+        <v>1.293321633321142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.798509395275858</v>
+        <v>2.719410457792947</v>
       </c>
       <c r="C25">
-        <v>0.4143987555231661</v>
+        <v>0.4387733844107231</v>
       </c>
       <c r="D25">
-        <v>0.0659983080147839</v>
+        <v>0.06986180029540634</v>
       </c>
       <c r="E25">
-        <v>0.08851065603463049</v>
+        <v>0.08365394504918022</v>
       </c>
       <c r="F25">
-        <v>0.4705039280262682</v>
+        <v>0.4476926592995056</v>
       </c>
       <c r="G25">
-        <v>0.3503440407773866</v>
+        <v>0.3207559897401353</v>
       </c>
       <c r="H25">
-        <v>0.003721946000173504</v>
+        <v>0.003405808283099221</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2596794676555021</v>
+        <v>0.2853139099480444</v>
       </c>
       <c r="K25">
-        <v>0.2268052793081949</v>
+        <v>0.2094684051704085</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1255833888274971</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04814256671389927</v>
       </c>
       <c r="N25">
-        <v>0.4112320403397405</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8091133905942911</v>
+        <v>0.4159686223367629</v>
       </c>
       <c r="Q25">
-        <v>1.236982415097856</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8444265206398143</v>
+      </c>
+      <c r="S25">
+        <v>1.16695869205347</v>
       </c>
     </row>
   </sheetData>
